--- a/TFE/Data/scar/ScarDoc_TFE.xlsx
+++ b/TFE/Data/scar/ScarDoc_TFE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Dawn of War Soulstorm\TFE\Data\scar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46686BF-BB97-4524-BD9F-F581EEDB103F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055AE751-8119-4EDD-912F-AF000C4695A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="65">
   <si>
     <t>Class Name</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>This is either self limiting or zombie, defined by programmer. Will default to self limiting which will destroy after 1 tick. Must explicitly be set to zombie</t>
+  </si>
+  <si>
+    <t>AutoBaseBuildingManager</t>
+  </si>
+  <si>
+    <t>SquadDataHistory</t>
+  </si>
+  <si>
+    <t>SquadData, FixedLengthTable</t>
+  </si>
+  <si>
+    <t>CriticalScars\AutoBaseBuilder\Classes</t>
   </si>
 </sst>
 </file>
@@ -575,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -830,13 +842,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>51</v>
@@ -851,7 +863,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>41</v>
@@ -872,7 +884,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>41</v>
@@ -892,92 +904,92 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="D17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>41</v>
@@ -998,7 +1010,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>41</v>
@@ -1018,29 +1030,29 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="3"/>
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>41</v>
@@ -1061,7 +1073,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>41</v>
@@ -1082,7 +1094,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>41</v>
@@ -1103,7 +1115,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>41</v>
@@ -1123,77 +1135,77 @@
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="B27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="4"/>
+      <c r="A28" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>51</v>
@@ -1208,13 +1220,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>51</v>
@@ -1229,13 +1241,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>51</v>
@@ -1250,45 +1262,87 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="D33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="6"/>
+      <c r="G35" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TFE/Data/scar/ScarDoc_TFE.xlsx
+++ b/TFE/Data/scar/ScarDoc_TFE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Dawn of War Soulstorm\TFE\Data\scar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055AE751-8119-4EDD-912F-AF000C4695A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00536411-78A0-4793-B5C3-EB265EE2DC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36000" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="71">
   <si>
     <t>Class Name</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t>CriticalScars\AutoBaseBuilder\Classes</t>
+  </si>
+  <si>
+    <t>Intentionally zombie as lifetime = player lifetime. Should be handled later for multiplayer games though</t>
+  </si>
+  <si>
+    <t>Intentionally zombie as lifetime SHOULD = game lifetime</t>
+  </si>
+  <si>
+    <t>Currently not used enough to warrant deconstructor</t>
+  </si>
+  <si>
+    <t>Intentionally zombie as lifetime SHOULD = game lifetime. We could consider self-limiting this if owner player is killed for multiplayer games</t>
+  </si>
+  <si>
+    <t>This requires deconstructor because of nids</t>
+  </si>
+  <si>
+    <t>If we use this more in future, it will require deconstructor</t>
   </si>
 </sst>
 </file>
@@ -243,7 +261,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +292,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -287,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -306,6 +330,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -589,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +640,7 @@
     <col min="4" max="4" width="18.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="87.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="87.7109375" style="10" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -624,7 +663,7 @@
       <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -647,7 +686,7 @@
       <c r="F2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -668,7 +707,7 @@
       <c r="F3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -689,9 +728,9 @@
       <c r="F4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -702,7 +741,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>47</v>
@@ -710,7 +749,9 @@
       <c r="F5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
@@ -731,7 +772,7 @@
       <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -752,7 +793,7 @@
       <c r="F7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -773,9 +814,9 @@
       <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -794,9 +835,11 @@
       <c r="F9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -815,7 +858,9 @@
       <c r="F10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -859,7 +904,7 @@
       <c r="F12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -880,7 +925,7 @@
       <c r="F13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -901,7 +946,7 @@
       <c r="F14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -922,7 +967,7 @@
       <c r="F15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -943,7 +988,7 @@
       <c r="F16" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
@@ -964,7 +1009,7 @@
       <c r="F17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -985,7 +1030,7 @@
       <c r="F18" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1006,7 +1051,7 @@
       <c r="F19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="8"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1027,7 +1072,7 @@
       <c r="F20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
@@ -1048,7 +1093,9 @@
       <c r="F21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1069,7 +1116,7 @@
       <c r="F22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1090,7 +1137,7 @@
       <c r="F23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1111,7 +1158,7 @@
       <c r="F24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -1132,7 +1179,7 @@
       <c r="F25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -1153,7 +1200,7 @@
       <c r="F26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -1174,7 +1221,7 @@
       <c r="F27" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -1195,7 +1242,7 @@
       <c r="F28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="6"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -1216,9 +1263,11 @@
       <c r="F29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1237,7 +1286,9 @@
       <c r="F30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1258,7 +1309,9 @@
       <c r="F31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1279,7 +1332,7 @@
       <c r="F32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -1300,7 +1353,7 @@
       <c r="F33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -1321,7 +1374,9 @@
       <c r="F34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="11" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -1342,7 +1397,7 @@
       <c r="F35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="6"/>
+      <c r="G35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
